--- a/biology/Zoologie/Amalosia_lesueurii/Amalosia_lesueurii.xlsx
+++ b/biology/Zoologie/Amalosia_lesueurii/Amalosia_lesueurii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amalosia lesueurii est une espèce de gecko de la famille des Diplodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amalosia lesueurii est une espèce de gecko de la famille des Diplodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans le Sud-Est du Queensland et dans l'est de la Nouvelle-Galles du Sud.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans le Sud-Est du Queensland et dans l'est de la Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est assez élancée. Elle présente comme les autres membres de ce genre une queue bombée. La couleur de base est le gris-brun, avec une bande en zigzag plus claire le long du dos, bordé de noir. Le reste du corps est moucheté de petits points plus ou moins sombres.
 </t>
@@ -573,7 +589,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces reptiles sont insectivores et consomment la plupart des insectes de taille adaptée (grillons, blattes…).
 </t>
@@ -604,7 +622,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction démarre au retour de la saison chaude.
 Les pontes consistent en des séries de deux œufs.
@@ -636,7 +656,9 @@
           <t>Paramètres climatiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant la saison chaude, les températures vont de 25 à 30 °C maximum la journée et chutent entre 20 et 25 °C la nuit. La saison « froide » correspond à des températures entre 18 et 22 °C la journée et descendent entre 15 et 18 °C la nuit.
 L'hygrométrie varie entre 60 % et 70 % selon les moments de la journée et la saison.
@@ -668,9 +690,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Alexandre Lesueur[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Alexandre Lesueur.
 </t>
         </is>
       </c>
@@ -699,7 +723,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1836 : Erpétologie Générale ou Histoire Naturelle Complète des Reptiles. Librairie Encyclopédique Roret, Paris, vol. 3, p. 1-517 (texte intégral).</t>
         </is>
